--- a/projects/deepseek/docs/spreadsheet/RAG_comparison_results.xlsx
+++ b/projects/deepseek/docs/spreadsheet/RAG_comparison_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilles_recital\source\repos\ragtime\projects\deepseek\docs\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ADEF9F-1C80-4BB6-A0A8-7E9CF89B2D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE38EFA8-CA3F-4279-B266-A6307510B5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="1" xr2:uid="{E1BFA7B3-F401-430D-BB91-2CCFBAFE54A3}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="853" activeTab="1" xr2:uid="{E1BFA7B3-F401-430D-BB91-2CCFBAFE54A3}"/>
   </bookViews>
   <sheets>
     <sheet name="XP1|Cutural bias per model" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,12 @@
     <definedName name="_xlchart.v1.0" hidden="1">'XP2|33Q Insurance dataset'!$N$3:$N$35</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'XP2|33Q Insurance dataset'!$O$3:$O$35</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'XP2|33Q Insurance dataset'!$P$3:$P$35</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'XP2|33Q Insurance dataset'!$N$3:$N$35</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'XP2|33Q Insurance dataset'!$O$3:$O$35</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'XP2|33Q Insurance dataset'!$P$3:$P$35</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'XP2|33Q Insurance dataset'!$N$3:$N$35</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'XP2|33Q Insurance dataset'!$O$3:$O$35</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'XP2|33Q Insurance dataset'!$P$3:$P$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -43,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>DS3</t>
   </si>
@@ -93,22 +99,10 @@
     <t>Mistral</t>
   </si>
   <si>
-    <t>ROW WISE</t>
-  </si>
-  <si>
     <t>Thresh.</t>
   </si>
   <si>
     <t>NB</t>
-  </si>
-  <si>
-    <t>Nb &lt; 0</t>
-  </si>
-  <si>
-    <t>Mean correlation</t>
-  </si>
-  <si>
-    <t>% corr &lt; 0</t>
   </si>
   <si>
     <t>Min</t>
@@ -121,6 +115,9 @@
   </si>
   <si>
     <t>COSINE SIM</t>
+  </si>
+  <si>
+    <t>Avg cos sim</t>
   </si>
 </sst>
 </file>
@@ -737,7 +734,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -770,7 +767,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -819,7 +815,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1300,7 +1303,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="l">
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1315,14 +1318,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>RAG performance</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="fr-FR"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Deepseek</a:t>
+              <a:t>RAG performance - Deepseek</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
@@ -1339,6 +1335,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.0149479166666653E-2"/>
+          <c:y val="3.5277777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1351,7 +1355,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr algn="l">
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1384,14 +1388,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Avg</c:v>
+                  <c:v>Avg cos sim</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="F5B941"/>
+              <a:srgbClr val="502BFF"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1457,24 +1461,6 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>'XP2|33Q Insurance dataset'!$R$2:$R$4</c:f>
@@ -1525,14 +1511,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>% cos. &lt; 0,8</c:v>
+                  <c:v>% cos sim &lt; 0,8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="502BFF"/>
+              <a:srgbClr val="CCC2FF"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1741,8 +1727,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83549131944444444"/>
+          <c:y val="7.1916269841269836E-2"/>
+          <c:w val="0.1568800347222222"/>
+          <c:h val="0.17009047619047621"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1835,7 +1831,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="l">
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1850,7 +1846,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>RAG performance Deepseek</a:t>
+              <a:t>RAG performance - Deepseek</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
@@ -1861,12 +1857,20 @@
             </a:br>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t>33 Insurance questions</a:t>
+              <a:t>149 Public sector questions</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.0149479166666653E-2"/>
+          <c:y val="3.5277777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1879,7 +1883,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr algn="l">
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1908,134 +1912,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'XP2|33Q Insurance dataset'!$S$1</c:f>
+              <c:f>'XP2|149Q Public dataset'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="F5B941"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'XP2|33Q Insurance dataset'!$R$2:$R$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>DS3 vs. GPT4-o</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DS3 vs. Mistral Large</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>GPT4-o vs. Mistral Large</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'XP2|33Q Insurance dataset'!$S$2:$S$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.94007345448731694</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92992727099302253</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90250412006553127</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D21-4FBD-BC9C-5D95AE66F7AC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'XP2|33Q Insurance dataset'!$W$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% cos. &lt; 0,8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2110,7 +1991,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'XP2|33Q Insurance dataset'!$R$2:$R$4</c:f>
+              <c:f>'XP2|149Q Public dataset'!$R$2:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2127,38 +2008,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'XP2|33Q Insurance dataset'!$W$2:$W$4</c:f>
+              <c:f>'XP2|149Q Public dataset'!$S$2:$S$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.0606060606060608E-2</c:v>
+                  <c:v>0.94552662960964051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>0.9545424147797954</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18181818181818182</c:v>
+                  <c:v>0.92039917903899715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5D21-4FBD-BC9C-5D95AE66F7AC}"/>
+              <c16:uniqueId val="{00000000-5FFD-43CA-AD5A-C8A57A1D9EB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'XP2|33Q Insurance dataset'!#REF!</c:f>
+              <c:f>'XP2|149Q Public dataset'!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>% cos. &lt; 0,8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2233,7 +2114,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'XP2|33Q Insurance dataset'!$R$2:$R$4</c:f>
+              <c:f>'XP2|149Q Public dataset'!$R$2:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2250,19 +2131,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'XP2|33Q Insurance dataset'!#REF!</c:f>
+              <c:f>'XP2|149Q Public dataset'!$W$2:$W$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2.6845637583892617E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3422818791946308E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6845637583892617E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5D21-4FBD-BC9C-5D95AE66F7AC}"/>
+              <c16:uniqueId val="{00000001-5FFD-43CA-AD5A-C8A57A1D9EB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2368,8 +2255,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83549131944444444"/>
+          <c:y val="7.1916269841269836E-2"/>
+          <c:w val="0.1568800347222222"/>
+          <c:h val="0.17009047619047621"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2440,65 +2337,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{DC02BADA-0430-4777-8304-FA6F8A1426BC}">
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{2D37D681-E483-4F4C-BA0C-5BE77858312C}">
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{D5752D11-E02C-4FAA-8BF2-BAA2CFAED655}">
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2582,46 +2420,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3668,521 +3466,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4878,16 +4161,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>883920</xdr:colOff>
+      <xdr:colOff>437430</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>20640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4898,7 +4181,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4912,84 +4197,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="Chart 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0F0EB3-35CB-E200-80B6-FCF3BE5BC581}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8301990" y="3897630"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4998,22 +4205,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>883920</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>349800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>58740</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{727A8E8D-61E9-4721-AEA3-7CE73782FA15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DE47DD-E9D9-49B4-83F2-B76A4899C6EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5406,9 +4613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A02655-3711-4058-AC85-5ACA9551AC41}">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5434,7 +4641,7 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -5464,26 +4671,26 @@
         <v>11</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="W1" s="3" t="str">
-        <f>"% cos. &lt; " &amp; $Q$2</f>
-        <v>% cos. &lt; 0,8</v>
+        <f>"% cos sim &lt; " &amp; $Q$2</f>
+        <v>% cos sim &lt; 0,8</v>
       </c>
       <c r="X1" s="3" t="str">
         <f>"Nb &lt; " &amp; $Q$2 &amp; " (abs)"</f>
@@ -5620,7 +4827,7 @@
         <f>SUMPRODUCT($B3:$E3, $J3:$M3)/SQRT(SUMSQ($B3:$E3)*SUMSQ($J3:$M3))</f>
         <v>0.95346258924559235</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="29">
         <f>SUMPRODUCT($J3:$M3, $F3:$I3)/SQRT(SUMSQ($J3:$M3)*SUMSQ($F3:$I3))</f>
         <v>0.84327404271156781</v>
       </c>
@@ -5701,7 +4908,7 @@
         <f t="shared" ref="O4:O35" si="8">SUMPRODUCT($B4:$E4, $J4:$M4)/SQRT(SUMSQ($B4:$E4)*SUMSQ($J4:$M4))</f>
         <v>0.97014250014533188</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="29">
         <f t="shared" ref="P4:P35" si="9">SUMPRODUCT($J4:$M4, $F4:$I4)/SQRT(SUMSQ($J4:$M4)*SUMSQ($F4:$I4))</f>
         <v>1</v>
       </c>
@@ -5782,7 +4989,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="29">
         <f t="shared" si="9"/>
         <v>0.70710678118654746</v>
       </c>
@@ -5837,15 +5044,15 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="29">
         <f t="shared" si="9"/>
         <v>0.9036961141150639</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7">
@@ -5896,7 +5103,7 @@
         <f t="shared" si="8"/>
         <v>0.94868329805051377</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="29">
         <f t="shared" si="9"/>
         <v>0.94868329805051377</v>
       </c>
@@ -5955,7 +5162,7 @@
         <f t="shared" si="8"/>
         <v>0.97014250014533188</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="29">
         <f t="shared" si="9"/>
         <v>0.92035798661684443</v>
       </c>
@@ -6009,7 +5216,7 @@
         <f t="shared" si="8"/>
         <v>0.96476382123773219</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="29">
         <f t="shared" si="9"/>
         <v>0.96476382123773219</v>
       </c>
@@ -6064,15 +5271,15 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="29">
         <f t="shared" si="9"/>
         <v>0.89442719099991586</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11">
@@ -6123,7 +5330,7 @@
         <f t="shared" si="8"/>
         <v>0.94868329805051377</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="29">
         <f t="shared" si="9"/>
         <v>0.84852813742385702</v>
       </c>
@@ -6182,7 +5389,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="29">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -6236,7 +5443,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="29">
         <f t="shared" si="9"/>
         <v>0.94868329805051377</v>
       </c>
@@ -6290,7 +5497,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14" s="29">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -6344,7 +5551,7 @@
         <f t="shared" si="8"/>
         <v>0.83149717967568149</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="29">
         <f t="shared" si="9"/>
         <v>0.97301245971120365</v>
       </c>
@@ -6398,7 +5605,7 @@
         <f t="shared" si="8"/>
         <v>0.70710678118654746</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="29">
         <f t="shared" si="9"/>
         <v>0.70710678118654746</v>
       </c>
@@ -6452,7 +5659,7 @@
         <f t="shared" si="8"/>
         <v>0.91465912076004718</v>
       </c>
-      <c r="P17" s="30">
+      <c r="P17" s="29">
         <f t="shared" si="9"/>
         <v>0.97725454975991544</v>
       </c>
@@ -6513,7 +5720,7 @@
         <f t="shared" si="8"/>
         <v>0.90453403373329089</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="29">
         <f t="shared" si="9"/>
         <v>0.94868329805051377</v>
       </c>
@@ -6574,7 +5781,7 @@
         <f t="shared" si="8"/>
         <v>0.98173724854312516</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="29">
         <f t="shared" si="9"/>
         <v>0.76709294785983062</v>
       </c>
@@ -6635,7 +5842,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="29">
         <f t="shared" si="9"/>
         <v>0.97230558532824662</v>
       </c>
@@ -6696,7 +5903,7 @@
         <f t="shared" si="8"/>
         <v>0.96723882032874153</v>
       </c>
-      <c r="P21" s="30">
+      <c r="P21" s="29">
         <f t="shared" si="9"/>
         <v>0.98639392383214375</v>
       </c>
@@ -6757,7 +5964,7 @@
         <f t="shared" si="8"/>
         <v>0.93313894963168686</v>
       </c>
-      <c r="P22" s="30">
+      <c r="P22" s="29">
         <f t="shared" si="9"/>
         <v>0.89973541084243736</v>
       </c>
@@ -6818,7 +6025,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P23" s="30">
+      <c r="P23" s="29">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -6879,7 +6086,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P24" s="30">
+      <c r="P24" s="29">
         <f t="shared" si="9"/>
         <v>0.96225044864937626</v>
       </c>
@@ -6940,7 +6147,7 @@
         <f t="shared" si="8"/>
         <v>0.95065415136526976</v>
       </c>
-      <c r="P25" s="30">
+      <c r="P25" s="29">
         <f t="shared" si="9"/>
         <v>0.95346258924559235</v>
       </c>
@@ -7001,7 +6208,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P26" s="30">
+      <c r="P26" s="29">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -7062,7 +6269,7 @@
         <f t="shared" si="8"/>
         <v>0.40824829046386302</v>
       </c>
-      <c r="P27" s="30">
+      <c r="P27" s="29">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
@@ -7123,7 +6330,7 @@
         <f t="shared" si="8"/>
         <v>0.85571696331098546</v>
       </c>
-      <c r="P28" s="30">
+      <c r="P28" s="29">
         <f t="shared" si="9"/>
         <v>0.70030097525185364</v>
       </c>
@@ -7184,7 +6391,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P29" s="30">
+      <c r="P29" s="29">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -7245,7 +6452,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P30" s="30">
+      <c r="P30" s="29">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -7306,7 +6513,7 @@
         <f t="shared" si="8"/>
         <v>0.96698755683045634</v>
       </c>
-      <c r="P31" s="30">
+      <c r="P31" s="29">
         <f t="shared" si="9"/>
         <v>0.89922880302589703</v>
       </c>
@@ -7367,7 +6574,7 @@
         <f t="shared" si="8"/>
         <v>0.88191710368819687</v>
       </c>
-      <c r="P32" s="30">
+      <c r="P32" s="29">
         <f t="shared" si="9"/>
         <v>0.90913729009698963</v>
       </c>
@@ -7428,7 +6635,7 @@
         <f t="shared" si="8"/>
         <v>0.66712438499499105</v>
       </c>
-      <c r="P33" s="30">
+      <c r="P33" s="29">
         <f t="shared" si="9"/>
         <v>0.64715022892943397</v>
       </c>
@@ -7489,7 +6696,7 @@
         <f t="shared" si="8"/>
         <v>0.98058067569092022</v>
       </c>
-      <c r="P34" s="30">
+      <c r="P34" s="29">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -7550,7 +6757,7 @@
         <f t="shared" si="8"/>
         <v>0.98058067569092022</v>
       </c>
-      <c r="P35" s="30">
+      <c r="P35" s="29">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -7565,22 +6772,22 @@
   </sheetData>
   <autoFilter ref="B2:M35" xr:uid="{03A45DB7-0019-454E-8F17-3003E0E28B80}"/>
   <conditionalFormatting sqref="B3:E35">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$D3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:I35">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$H3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:M35">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$L3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:P35">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>ABS(N3)&lt;$Q$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7592,11 +6799,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A45DB7-0019-454E-8F17-3003E0E28B80}">
-  <dimension ref="A1:W151"/>
+  <dimension ref="A1:X151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S109" sqref="S109"/>
+      <selection pane="bottomLeft" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7611,19 +6818,18 @@
     <col min="10" max="10" width="3.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.69921875" customWidth="1"/>
+    <col min="14" max="14" width="8.69921875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.69921875" customWidth="1"/>
     <col min="17" max="17" width="8.69921875" style="1" customWidth="1"/>
     <col min="18" max="18" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.69921875" customWidth="1"/>
-    <col min="20" max="20" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.69921875" customWidth="1"/>
-    <col min="22" max="22" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="29" width="8.69921875" customWidth="1"/>
+    <col min="19" max="22" width="8.69921875" customWidth="1"/>
+    <col min="23" max="24" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -7643,7 +6849,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="26" t="s">
         <v>14</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -7653,30 +6859,33 @@
         <v>11</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="3" t="str">
-        <f>"% abs(corr.) &lt; " &amp; $Q$2</f>
-        <v>% abs(corr.) &lt; 0,5</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="3" t="str">
+      <c r="W1" s="3" t="str">
+        <f>"% cos. &lt; " &amp; $Q$2</f>
+        <v>% cos. &lt; 0,8</v>
+      </c>
+      <c r="X1" s="3" t="str">
         <f>"Nb &lt; " &amp; $Q$2 &amp; " (abs)"</f>
-        <v>Nb &lt; 0,5 (abs)</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+        <v>Nb &lt; 0,8 (abs)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2">
         <f>COUNTA(A3:A300)</f>
         <v>149</v>
@@ -7717,7 +6926,7 @@
       <c r="M2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="26" t="s">
         <v>11</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -7727,33 +6936,37 @@
         <v>15</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="2" t="e">
+      <c r="S2" s="2">
         <f ca="1">AVERAGE(OFFSET($N$3, 0, ROW(A1)-1, $A$2, 1))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T2" s="27">
-        <f ca="1">V2/$A$2</f>
-        <v>0.10067114093959731</v>
-      </c>
-      <c r="U2" s="27">
-        <f ca="1">W2/$A$2</f>
-        <v>1.3422818791946308E-2</v>
-      </c>
-      <c r="V2">
+        <v>0.94552662960964051</v>
+      </c>
+      <c r="T2" s="2">
+        <f ca="1">MIN(OFFSET($N$3, 0, ROW(A1)-1, $A$2, 1))</f>
+        <v>0.43040528987292936</v>
+      </c>
+      <c r="U2" s="2">
+        <f ca="1">MAX(OFFSET($N$3, 0, ROW(A1)-1, $A$2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="2">
+        <f ca="1">_xlfn.STDEV.P(OFFSET($N$3, 0, ROW(A1)-1, $A$2, 1))</f>
+        <v>0.1171177399620619</v>
+      </c>
+      <c r="W2" s="27">
+        <f ca="1">X2/$A$2</f>
+        <v>2.6845637583892617E-2</v>
+      </c>
+      <c r="X2">
         <f ca="1">COUNTIF(OFFSET($N$3, 0, ROW(A1)-1, $A$2, 1), "&lt;"&amp;$Q$2)</f>
-        <v>15</v>
-      </c>
-      <c r="W2">
-        <f ca="1">COUNTIF(OFFSET($N$3, 0, ROW(A1)-1, $A$2, 1), "&lt;0")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -7794,45 +7007,49 @@
       <c r="M3" s="10">
         <v>3</v>
       </c>
-      <c r="N3" s="2">
-        <f>PEARSON(B3:E3, F3:I3)</f>
-        <v>0.78947368421052622</v>
+      <c r="N3" s="18">
+        <f>SUMPRODUCT($B3:$E3, $F3:$I3)/SQRT(SUMSQ($B3:$E3)*SUMSQ($F3:$I3))</f>
+        <v>0.90909090909090906</v>
       </c>
       <c r="O3" s="2">
-        <f>PEARSON(B3:E3, J3:M3)</f>
-        <v>0.78947368421052622</v>
-      </c>
-      <c r="P3" s="2">
-        <f>PEARSON(F3:I3, J3:M3)</f>
-        <v>0.99999999999999978</v>
+        <f>SUMPRODUCT($B3:$E3, $J3:$M3)/SQRT(SUMSQ($B3:$E3)*SUMSQ($J3:$M3))</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="P3" s="29">
+        <f>SUMPRODUCT($J3:$M3, $F3:$I3)/SQRT(SUMSQ($J3:$M3)*SUMSQ($F3:$I3))</f>
+        <v>1</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="2" t="e">
+      <c r="S3" s="2">
         <f t="shared" ref="S3:S4" ca="1" si="0">AVERAGE(OFFSET($N$3, 0, ROW(A2)-1, $A$2, 1))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T3" s="27">
-        <f t="shared" ref="T3:U4" ca="1" si="1">V3/$A$2</f>
-        <v>6.0402684563758392E-2</v>
-      </c>
-      <c r="U3" s="27">
-        <f t="shared" ca="1" si="1"/>
+        <v>0.9545424147797954</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" ref="T3:T4" ca="1" si="1">MIN(OFFSET($N$3, 0, ROW(A2)-1, $A$2, 1))</f>
+        <v>0.7453559924999299</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U4" ca="1" si="2">MAX(OFFSET($N$3, 0, ROW(A2)-1, $A$2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
+        <f t="shared" ref="V3:V4" ca="1" si="3">_xlfn.STDEV.P(OFFSET($N$3, 0, ROW(A2)-1, $A$2, 1))</f>
+        <v>6.5725230203517448E-2</v>
+      </c>
+      <c r="W3" s="27">
+        <f t="shared" ref="W3:W4" ca="1" si="4">X3/$A$2</f>
         <v>1.3422818791946308E-2</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V4" ca="1" si="2">COUNTIF(OFFSET($N$3, 0, ROW(A2)-1, $A$2, 1), "&lt;"&amp;$Q$2)</f>
-        <v>9</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W4" ca="1" si="3">COUNTIF(OFFSET($N$3, 0, ROW(A2)-1, $A$2, 1), "&lt;0")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <f t="shared" ref="X3:X4" ca="1" si="5">COUNTIF(OFFSET($N$3, 0, ROW(A2)-1, $A$2, 1), "&lt;"&amp;$Q$2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="4">ROW(A2)</f>
+        <f t="shared" ref="A4:A67" si="6">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B4" s="11">
@@ -7871,45 +7088,49 @@
       <c r="M4" s="13">
         <v>0</v>
       </c>
-      <c r="N4" s="2">
-        <f t="shared" ref="N4:N35" si="5">PEARSON(B4:E4, F4:I4)</f>
-        <v>1.0000000000000002</v>
+      <c r="N4" s="18">
+        <f t="shared" ref="N4:N35" si="7">SUMPRODUCT($B4:$E4, $F4:$I4)/SQRT(SUMSQ($B4:$E4)*SUMSQ($F4:$I4))</f>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:O35" si="6">PEARSON(B4:E4, J4:M4)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" ref="P4:P35" si="7">PEARSON(F4:I4, J4:M4)</f>
-        <v>1.0000000000000002</v>
+        <f t="shared" ref="O4:O35" si="8">SUMPRODUCT($B4:$E4, $J4:$M4)/SQRT(SUMSQ($B4:$E4)*SUMSQ($J4:$M4))</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="29">
+        <f t="shared" ref="P4:P35" si="9">SUMPRODUCT($J4:$M4, $F4:$I4)/SQRT(SUMSQ($J4:$M4)*SUMSQ($F4:$I4))</f>
+        <v>1</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="2" t="e">
+      <c r="S4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T4" s="27">
+        <v>0.92039917903899715</v>
+      </c>
+      <c r="T4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7248322147651006E-2</v>
-      </c>
-      <c r="U4" s="27">
-        <f t="shared" ca="1" si="1"/>
+        <v>0.43040528987292936</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.14783425999338087</v>
+      </c>
+      <c r="W4" s="27">
+        <f t="shared" ca="1" si="4"/>
         <v>2.6845637583892617E-2</v>
       </c>
-      <c r="V4">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="X4">
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="B5" s="8">
@@ -7948,23 +7169,23 @@
       <c r="M5" s="10">
         <v>4</v>
       </c>
-      <c r="N5" s="2">
-        <f t="shared" si="5"/>
-        <v>0.98473192783466201</v>
+      <c r="N5" s="18">
+        <f t="shared" si="7"/>
+        <v>0.98994949366116647</v>
       </c>
       <c r="O5" s="2">
+        <f t="shared" si="8"/>
+        <v>0.97618706018395285</v>
+      </c>
+      <c r="P5" s="29">
+        <f t="shared" si="9"/>
+        <v>0.99705448550158149</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6">
         <f t="shared" si="6"/>
-        <v>0.96558102873057605</v>
-      </c>
-      <c r="P5" s="2">
-        <f t="shared" si="7"/>
-        <v>0.99611649018350457</v>
-      </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="11">
@@ -8003,24 +7224,27 @@
       <c r="M6" s="13">
         <v>3</v>
       </c>
-      <c r="N6" s="2">
-        <f t="shared" si="5"/>
+      <c r="N6" s="18">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="6"/>
-        <v>0.93939393939393945</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" si="7"/>
-        <v>0.93939393939393945</v>
+        <f t="shared" si="8"/>
+        <v>0.9557790087219501</v>
+      </c>
+      <c r="P6" s="29">
+        <f t="shared" si="9"/>
+        <v>0.9557790087219501</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B7" s="8">
@@ -8059,24 +7283,27 @@
       <c r="M7" s="10">
         <v>1</v>
       </c>
-      <c r="N7" s="2">
-        <f t="shared" si="5"/>
+      <c r="N7" s="18">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="6"/>
-        <v>0.94280904158206336</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" si="7"/>
-        <v>0.94280904158206336</v>
+        <f t="shared" si="8"/>
+        <v>0.96476382123773219</v>
+      </c>
+      <c r="P7" s="29">
+        <f t="shared" si="9"/>
+        <v>0.96476382123773219</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B8" s="11">
@@ -8115,22 +7342,22 @@
       <c r="M8" s="13">
         <v>2</v>
       </c>
-      <c r="N8" s="2">
-        <f t="shared" si="5"/>
-        <v>0.95590423879848652</v>
+      <c r="N8" s="18">
+        <f t="shared" si="7"/>
+        <v>0.96720415164935158</v>
       </c>
       <c r="O8" s="2">
+        <f t="shared" si="8"/>
+        <v>0.93385228435109813</v>
+      </c>
+      <c r="P8" s="29">
+        <f t="shared" si="9"/>
+        <v>0.89655172413793105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9">
         <f t="shared" si="6"/>
-        <v>0.83624201000709075</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="7"/>
-        <v>0.81649658092772603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9">
-        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="8">
@@ -8169,23 +7396,23 @@
       <c r="M9" s="10">
         <v>2</v>
       </c>
-      <c r="N9" s="2">
-        <f t="shared" si="5"/>
-        <v>0.94387980744853894</v>
+      <c r="N9" s="18">
+        <f t="shared" si="7"/>
+        <v>0.9561828874675149</v>
       </c>
       <c r="O9" s="2">
+        <f t="shared" si="8"/>
+        <v>0.9561828874675149</v>
+      </c>
+      <c r="P9" s="29">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10">
         <f t="shared" si="6"/>
-        <v>0.94387980744853894</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="11">
@@ -8224,24 +7451,27 @@
       <c r="M10" s="13">
         <v>1</v>
       </c>
-      <c r="N10" s="2">
-        <f t="shared" si="5"/>
-        <v>0.97780460406083358</v>
+      <c r="N10" s="18">
+        <f t="shared" si="7"/>
+        <v>0.98328200498446006</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="6"/>
-        <v>0.93663240673167336</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="7"/>
-        <v>0.97014250014533199</v>
+        <f t="shared" si="8"/>
+        <v>0.96291384097129873</v>
+      </c>
+      <c r="P10" s="29">
+        <f t="shared" si="9"/>
+        <v>0.97072534339415084</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B11" s="8">
@@ -8280,24 +7510,27 @@
       <c r="M11" s="10">
         <v>1</v>
       </c>
-      <c r="N11" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88659264131161553</v>
+      <c r="N11" s="18">
+        <f t="shared" si="7"/>
+        <v>0.98088418050583903</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="6"/>
-        <v>0.89442719099991586</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="7"/>
-        <v>0.76249285166302339</v>
+        <f t="shared" si="8"/>
+        <v>0.9435641951204965</v>
+      </c>
+      <c r="P11" s="29">
+        <f t="shared" si="9"/>
+        <v>0.93180195291108359</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="B12" s="11">
@@ -8336,22 +7569,22 @@
       <c r="M12" s="13">
         <v>2</v>
       </c>
-      <c r="N12" s="2">
-        <f t="shared" si="5"/>
-        <v>0.99479000310648813</v>
+      <c r="N12" s="18">
+        <f t="shared" si="7"/>
+        <v>0.99522852511997995</v>
       </c>
       <c r="O12" s="2">
+        <f t="shared" si="8"/>
+        <v>0.99522852511997995</v>
+      </c>
+      <c r="P12" s="29">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13">
         <f t="shared" si="6"/>
-        <v>0.99479000310648813</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13">
-        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="8">
@@ -8390,76 +7623,76 @@
       <c r="M13" s="10">
         <v>1</v>
       </c>
-      <c r="N13" s="2">
-        <f t="shared" si="5"/>
-        <v>1.0000000000000002</v>
+      <c r="N13" s="18">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="29">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14">
         <f t="shared" si="6"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="P13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2</v>
+      </c>
+      <c r="F14" s="17">
+        <v>2</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <v>2</v>
+      </c>
+      <c r="K14" s="12">
+        <v>2</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>3</v>
+      </c>
+      <c r="N14" s="18">
         <f t="shared" si="7"/>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="11">
-        <v>3</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>2</v>
-      </c>
-      <c r="F14" s="17">
-        <v>2</v>
-      </c>
-      <c r="G14" s="12">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17">
-        <v>2</v>
-      </c>
-      <c r="K14" s="12">
-        <v>2</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13">
-        <v>3</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="5"/>
-        <v>0.31622776601683794</v>
+        <v>0.76376261582597338</v>
       </c>
       <c r="O14" s="2">
+        <f t="shared" si="8"/>
+        <v>0.9074852129730302</v>
+      </c>
+      <c r="P14" s="29">
+        <f t="shared" si="9"/>
+        <v>0.59408852578600457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15">
         <f t="shared" si="6"/>
-        <v>0.71818484645960778</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="7"/>
-        <v>-0.32444284226152503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15">
-        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="8">
@@ -8498,22 +7731,22 @@
       <c r="M15" s="10">
         <v>4</v>
       </c>
-      <c r="N15" s="2">
-        <f t="shared" si="5"/>
-        <v>1.0000000000000002</v>
+      <c r="N15" s="18">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
+        <f t="shared" si="8"/>
+        <v>0.8574929257125441</v>
+      </c>
+      <c r="P15" s="29">
+        <f t="shared" si="9"/>
+        <v>0.8574929257125441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16">
         <f t="shared" si="6"/>
-        <v>0.76249285166302339</v>
-      </c>
-      <c r="P15" s="2">
-        <f t="shared" si="7"/>
-        <v>0.76249285166302339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16">
-        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="11">
@@ -8552,22 +7785,22 @@
       <c r="M16" s="13">
         <v>1</v>
       </c>
-      <c r="N16" s="2">
-        <f t="shared" si="5"/>
+      <c r="N16" s="18">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P16" s="29">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="B17" s="8">
@@ -8606,22 +7839,22 @@
       <c r="M17" s="10">
         <v>3</v>
       </c>
-      <c r="N17" s="2">
-        <f t="shared" si="5"/>
-        <v>1.0000000000000002</v>
+      <c r="N17" s="18">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="6"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="P17" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0000000000000002</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="29">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="B18" s="11">
@@ -8660,22 +7893,22 @@
       <c r="M18" s="13">
         <v>3</v>
       </c>
-      <c r="N18" s="2">
-        <f t="shared" si="5"/>
-        <v>0.95668920621492115</v>
+      <c r="N18" s="18">
+        <f t="shared" si="7"/>
+        <v>0.96214047088472776</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="6"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="P18" s="2">
-        <f t="shared" si="7"/>
-        <v>0.95668920621492115</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="29">
+        <f t="shared" si="9"/>
+        <v>0.96214047088472776</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="B19" s="8">
@@ -8714,22 +7947,22 @@
       <c r="M19" s="10">
         <v>0</v>
       </c>
-      <c r="N19" s="2">
-        <f t="shared" si="5"/>
-        <v>0.95399809200572383</v>
+      <c r="N19" s="18">
+        <f t="shared" si="7"/>
+        <v>0.95782628522115143</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="6"/>
-        <v>0.95399809200572383</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" si="7"/>
-        <v>0.99999999999999978</v>
+        <f t="shared" si="8"/>
+        <v>0.95782628522115143</v>
+      </c>
+      <c r="P19" s="29">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="B20" s="11">
@@ -8768,22 +8001,22 @@
       <c r="M20" s="13">
         <v>1</v>
       </c>
-      <c r="N20" s="2">
-        <f t="shared" si="5"/>
-        <v>0.98287639212190892</v>
+      <c r="N20" s="18">
+        <f t="shared" si="7"/>
+        <v>0.98805445427937288</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P20" s="2">
-        <f t="shared" si="7"/>
-        <v>0.98287639212190892</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="29">
+        <f t="shared" si="9"/>
+        <v>0.98805445427937288</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="B21" s="8">
@@ -8822,22 +8055,22 @@
       <c r="M21" s="10">
         <v>2</v>
       </c>
-      <c r="N21" s="2">
-        <f t="shared" si="5"/>
+      <c r="N21" s="18">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="6"/>
-        <v>0.98198050606196574</v>
-      </c>
-      <c r="P21" s="2">
-        <f t="shared" si="7"/>
-        <v>0.98198050606196574</v>
+        <f t="shared" si="8"/>
+        <v>0.98149545762236368</v>
+      </c>
+      <c r="P21" s="29">
+        <f t="shared" si="9"/>
+        <v>0.98149545762236368</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="B22" s="11">
@@ -8876,22 +8109,22 @@
       <c r="M22" s="13">
         <v>2</v>
       </c>
-      <c r="N22" s="2">
-        <f t="shared" si="5"/>
-        <v>0.85280286542244166</v>
+      <c r="N22" s="18">
+        <f t="shared" si="7"/>
+        <v>0.95257934441568037</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P22" s="2">
-        <f t="shared" si="7"/>
-        <v>0.85280286542244166</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="29">
+        <f t="shared" si="9"/>
+        <v>0.95257934441568037</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="B23" s="8">
@@ -8930,22 +8163,22 @@
       <c r="M23" s="10">
         <v>2</v>
       </c>
-      <c r="N23" s="2">
-        <f t="shared" si="5"/>
-        <v>0.97780460406083358</v>
+      <c r="N23" s="18">
+        <f t="shared" si="7"/>
+        <v>0.98328200498446006</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="6"/>
-        <v>0.97780460406083358</v>
-      </c>
-      <c r="P23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>0.98328200498446006</v>
+      </c>
+      <c r="P23" s="29">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="B24" s="11">
@@ -8984,22 +8217,22 @@
       <c r="M24" s="13">
         <v>1</v>
       </c>
-      <c r="N24" s="2">
-        <f t="shared" si="5"/>
+      <c r="N24" s="18">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="6"/>
-        <v>0.5222329678670935</v>
-      </c>
-      <c r="P24" s="2">
-        <f t="shared" si="7"/>
-        <v>0.5222329678670935</v>
+        <f t="shared" si="8"/>
+        <v>0.7745966692414834</v>
+      </c>
+      <c r="P24" s="29">
+        <f t="shared" si="9"/>
+        <v>0.7745966692414834</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="B25" s="8">
@@ -9038,22 +8271,22 @@
       <c r="M25" s="10">
         <v>2</v>
       </c>
-      <c r="N25" s="2">
-        <f t="shared" si="5"/>
-        <v>0.57735026918962584</v>
+      <c r="N25" s="18">
+        <f t="shared" si="7"/>
+        <v>0.70710678118654746</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="6"/>
-        <v>0.90453403373329089</v>
-      </c>
-      <c r="P25" s="2">
-        <f t="shared" si="7"/>
-        <v>0.17407765595569785</v>
+        <f t="shared" si="8"/>
+        <v>0.94868329805051377</v>
+      </c>
+      <c r="P25" s="29">
+        <f t="shared" si="9"/>
+        <v>0.44721359549995793</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B26" s="11">
@@ -9092,22 +8325,22 @@
       <c r="M26" s="13">
         <v>0</v>
       </c>
-      <c r="N26" s="2">
-        <f t="shared" si="5"/>
-        <v>0.99999999999999978</v>
+      <c r="N26" s="18">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="6"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="P26" s="2">
-        <f t="shared" si="7"/>
-        <v>0.99999999999999978</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P26" s="29">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="B27" s="8">
@@ -9146,22 +8379,22 @@
       <c r="M27" s="10">
         <v>3</v>
       </c>
-      <c r="N27" s="2">
-        <f t="shared" si="5"/>
-        <v>0.99999999999999978</v>
+      <c r="N27" s="18">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="6"/>
-        <v>0.22941573387056174</v>
-      </c>
-      <c r="P27" s="2">
-        <f t="shared" si="7"/>
-        <v>0.22941573387056174</v>
+        <f t="shared" si="8"/>
+        <v>0.81348921681996067</v>
+      </c>
+      <c r="P27" s="29">
+        <f t="shared" si="9"/>
+        <v>0.81348921681996067</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="B28" s="11">
@@ -9200,22 +8433,22 @@
       <c r="M28" s="13">
         <v>4</v>
       </c>
-      <c r="N28" s="2">
-        <f t="shared" si="5"/>
-        <v>0.98133583997357465</v>
+      <c r="N28" s="18">
+        <f t="shared" si="7"/>
+        <v>0.98270762982399085</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="6"/>
-        <v>0.97883891582354254</v>
-      </c>
-      <c r="P28" s="2">
-        <f t="shared" si="7"/>
-        <v>0.95065415136526987</v>
+        <f t="shared" si="8"/>
+        <v>0.99111700881887199</v>
+      </c>
+      <c r="P28" s="29">
+        <f t="shared" si="9"/>
+        <v>0.96609178307929588</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="B29" s="8">
@@ -9254,22 +8487,22 @@
       <c r="M29" s="10">
         <v>0</v>
       </c>
-      <c r="N29" s="2">
-        <f t="shared" si="5"/>
-        <v>0.45454545454545453</v>
+      <c r="N29" s="18">
+        <f t="shared" si="7"/>
+        <v>0.7453559924999299</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="6"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="P29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>0.7453559924999299</v>
+      </c>
+      <c r="P29" s="29">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="B30" s="11">
@@ -9308,22 +8541,22 @@
       <c r="M30" s="13">
         <v>1</v>
       </c>
-      <c r="N30" s="2">
-        <f t="shared" si="5"/>
-        <v>0.9296696802013682</v>
+      <c r="N30" s="18">
+        <f t="shared" si="7"/>
+        <v>0.9667550799532344</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P30" s="2">
-        <f t="shared" si="7"/>
-        <v>0.9296696802013682</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P30" s="29">
+        <f t="shared" si="9"/>
+        <v>0.9667550799532344</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="B31" s="8">
@@ -9362,22 +8595,22 @@
       <c r="M31" s="10">
         <v>1</v>
       </c>
-      <c r="N31" s="2">
-        <f t="shared" si="5"/>
-        <v>1.0000000000000002</v>
+      <c r="N31" s="18">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="6"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="P31" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0000000000000002</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P31" s="29">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="B32" s="11">
@@ -9416,22 +8649,22 @@
       <c r="M32" s="13">
         <v>2</v>
       </c>
-      <c r="N32" s="2">
-        <f t="shared" si="5"/>
+      <c r="N32" s="18">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="6"/>
-        <v>0.94290807094440587</v>
-      </c>
-      <c r="P32" s="2">
-        <f t="shared" si="7"/>
-        <v>0.94290807094440587</v>
+        <f t="shared" si="8"/>
+        <v>0.94151308352400831</v>
+      </c>
+      <c r="P32" s="29">
+        <f t="shared" si="9"/>
+        <v>0.94151308352400831</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="B33" s="8">
@@ -9470,22 +8703,22 @@
       <c r="M33" s="10">
         <v>1</v>
       </c>
-      <c r="N33" s="2">
-        <f t="shared" si="5"/>
+      <c r="N33" s="18">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P33" s="29">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="B34" s="11">
@@ -9524,22 +8757,22 @@
       <c r="M34" s="13">
         <v>2</v>
       </c>
-      <c r="N34" s="2">
-        <f t="shared" si="5"/>
-        <v>-0.1101087350889238</v>
+      <c r="N34" s="18">
+        <f t="shared" si="7"/>
+        <v>0.43040528987292936</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="6"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="P34" s="2">
-        <f t="shared" si="7"/>
-        <v>-0.1101087350889238</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P34" s="29">
+        <f t="shared" si="9"/>
+        <v>0.43040528987292936</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="B35" s="8">
@@ -9578,22 +8811,22 @@
       <c r="M35" s="10">
         <v>3</v>
       </c>
-      <c r="N35" s="2">
-        <f t="shared" si="5"/>
-        <v>0.96225044864937626</v>
+      <c r="N35" s="18">
+        <f t="shared" si="7"/>
+        <v>0.98058067569092022</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" si="7"/>
-        <v>0.96225044864937626</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P35" s="29">
+        <f t="shared" si="9"/>
+        <v>0.98058067569092022</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="B36" s="11">
@@ -9632,22 +8865,10 @@
       <c r="M36" s="13">
         <v>3</v>
       </c>
-      <c r="N36" s="2">
-        <f t="shared" ref="N36:N99" si="8">PEARSON(B36:E36, F36:I36)</f>
-        <v>1</v>
-      </c>
-      <c r="O36" s="2">
-        <f t="shared" ref="O36:O99" si="9">PEARSON(B36:E36, J36:M36)</f>
-        <v>0.8703882797784892</v>
-      </c>
-      <c r="P36" s="2">
-        <f t="shared" ref="P36:P99" si="10">PEARSON(F36:I36, J36:M36)</f>
-        <v>0.8703882797784892</v>
-      </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="B37" s="8">
@@ -9686,22 +8907,10 @@
       <c r="M37" s="10">
         <v>1</v>
       </c>
-      <c r="N37" s="2">
-        <f t="shared" si="8"/>
-        <v>0.88659264131161553</v>
-      </c>
-      <c r="O37" s="2">
-        <f t="shared" si="9"/>
-        <v>0.88659264131161553</v>
-      </c>
-      <c r="P37" s="2">
-        <f t="shared" si="10"/>
-        <v>1.0000000000000002</v>
-      </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="B38" s="11">
@@ -9739,23 +8948,11 @@
       </c>
       <c r="M38" s="13">
         <v>2</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O38" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P38" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="B39" s="8">
@@ -9794,22 +8991,10 @@
       <c r="M39" s="10">
         <v>2</v>
       </c>
-      <c r="N39" s="2">
-        <f t="shared" si="8"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="O39" s="2">
-        <f t="shared" si="9"/>
-        <v>0.99765180721335012</v>
-      </c>
-      <c r="P39" s="2">
-        <f t="shared" si="10"/>
-        <v>0.99765180721335012</v>
-      </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="B40" s="11">
@@ -9847,23 +9032,11 @@
       </c>
       <c r="M40" s="13">
         <v>1</v>
-      </c>
-      <c r="N40" s="2">
-        <f t="shared" si="8"/>
-        <v>0.81649658092772592</v>
-      </c>
-      <c r="O40" s="2">
-        <f t="shared" si="9"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="P40" s="2">
-        <f t="shared" si="10"/>
-        <v>0.81649658092772592</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="B41" s="8">
@@ -9902,22 +9075,10 @@
       <c r="M41" s="10">
         <v>2</v>
       </c>
-      <c r="N41" s="2">
-        <f t="shared" si="8"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="O41" s="2">
-        <f t="shared" si="9"/>
-        <v>0.96558102873057605</v>
-      </c>
-      <c r="P41" s="2">
-        <f t="shared" si="10"/>
-        <v>0.96558102873057605</v>
-      </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="B42" s="11">
@@ -9956,22 +9117,10 @@
       <c r="M42" s="13">
         <v>4</v>
       </c>
-      <c r="N42" s="2">
-        <f t="shared" si="8"/>
-        <v>0.98787833990721308</v>
-      </c>
-      <c r="O42" s="2">
-        <f t="shared" si="9"/>
-        <v>0.98787833990721308</v>
-      </c>
-      <c r="P42" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="B43" s="8">
@@ -10010,22 +9159,10 @@
       <c r="M43" s="10">
         <v>1</v>
       </c>
-      <c r="N43" s="2">
-        <f t="shared" si="8"/>
-        <v>0.98544600742916477</v>
-      </c>
-      <c r="O43" s="2">
-        <f t="shared" si="9"/>
-        <v>0.98787150162793114</v>
-      </c>
-      <c r="P43" s="2">
-        <f t="shared" si="10"/>
-        <v>0.9906911047183069</v>
-      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="B44" s="11">
@@ -10064,22 +9201,10 @@
       <c r="M44" s="13">
         <v>1</v>
       </c>
-      <c r="N44" s="2">
-        <f t="shared" si="8"/>
-        <v>0.9462555234916723</v>
-      </c>
-      <c r="O44" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P44" s="2">
-        <f t="shared" si="10"/>
-        <v>0.9462555234916723</v>
-      </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="B45" s="8">
@@ -10118,22 +9243,10 @@
       <c r="M45" s="10">
         <v>1</v>
       </c>
-      <c r="N45" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O45" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P45" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="B46" s="11">
@@ -10171,23 +9284,11 @@
       </c>
       <c r="M46" s="13">
         <v>2</v>
-      </c>
-      <c r="N46" s="2">
-        <f t="shared" si="8"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="O46" s="2">
-        <f t="shared" si="9"/>
-        <v>0.85280286542244166</v>
-      </c>
-      <c r="P46" s="2">
-        <f t="shared" si="10"/>
-        <v>0.85280286542244166</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="B47" s="8">
@@ -10226,22 +9327,10 @@
       <c r="M47" s="10">
         <v>1</v>
       </c>
-      <c r="N47" s="2">
-        <f t="shared" si="8"/>
-        <v>0.5222329678670935</v>
-      </c>
-      <c r="O47" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P47" s="2">
-        <f t="shared" si="10"/>
-        <v>0.5222329678670935</v>
-      </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="B48" s="11">
@@ -10280,22 +9369,10 @@
       <c r="M48" s="13">
         <v>2</v>
       </c>
-      <c r="N48" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O48" s="2">
-        <f t="shared" si="9"/>
-        <v>0.98893746303421326</v>
-      </c>
-      <c r="P48" s="2">
-        <f t="shared" si="10"/>
-        <v>0.98893746303421326</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="B49" s="8">
@@ -10334,22 +9411,10 @@
       <c r="M49" s="10">
         <v>3</v>
       </c>
-      <c r="N49" s="2">
-        <f t="shared" si="8"/>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="O49" s="2">
-        <f t="shared" si="9"/>
-        <v>0.97332852678457504</v>
-      </c>
-      <c r="P49" s="2">
-        <f t="shared" si="10"/>
-        <v>0.68824720161168518</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="B50" s="11">
@@ -10388,22 +9453,10 @@
       <c r="M50" s="13">
         <v>3</v>
       </c>
-      <c r="N50" s="2">
-        <f t="shared" si="8"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="O50" s="2">
-        <f t="shared" si="9"/>
-        <v>0.99125785710020275</v>
-      </c>
-      <c r="P50" s="2">
-        <f t="shared" si="10"/>
-        <v>0.99125785710020275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="B51" s="8">
@@ -10442,22 +9495,10 @@
       <c r="M51" s="10">
         <v>1</v>
       </c>
-      <c r="N51" s="2">
-        <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="O51" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P51" s="2">
-        <f t="shared" si="10"/>
-        <v>0.55555555555555558</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="B52" s="11">
@@ -10496,22 +9537,10 @@
       <c r="M52" s="13">
         <v>2</v>
       </c>
-      <c r="N52" s="2">
-        <f t="shared" si="8"/>
-        <v>0.66254134886891325</v>
-      </c>
-      <c r="O52" s="2">
-        <f t="shared" si="9"/>
-        <v>0.96832966373148854</v>
-      </c>
-      <c r="P52" s="2">
-        <f t="shared" si="10"/>
-        <v>0.48571428571428571</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="B53" s="8">
@@ -10550,22 +9579,10 @@
       <c r="M53" s="10">
         <v>1</v>
       </c>
-      <c r="N53" s="2">
-        <f t="shared" si="8"/>
-        <v>0.97014250014533199</v>
-      </c>
-      <c r="O53" s="2">
-        <f t="shared" si="9"/>
-        <v>0.97014250014533199</v>
-      </c>
-      <c r="P53" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="B54" s="11">
@@ -10604,22 +9621,10 @@
       <c r="M54" s="13">
         <v>2</v>
       </c>
-      <c r="N54" s="2">
-        <f t="shared" si="8"/>
-        <v>0.49221253586090646</v>
-      </c>
-      <c r="O54" s="2">
-        <f t="shared" si="9"/>
-        <v>0.9742446008949095</v>
-      </c>
-      <c r="P54" s="2">
-        <f t="shared" si="10"/>
-        <v>0.67363306970860781</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="B55" s="8">
@@ -10658,22 +9663,10 @@
       <c r="M55" s="10">
         <v>3</v>
       </c>
-      <c r="N55" s="2">
-        <f t="shared" si="8"/>
-        <v>0.91465912076004718</v>
-      </c>
-      <c r="O55" s="2">
-        <f t="shared" si="9"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="P55" s="2">
-        <f t="shared" si="10"/>
-        <v>0.91465912076004718</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="B56" s="11">
@@ -10712,22 +9705,10 @@
       <c r="M56" s="13">
         <v>2</v>
       </c>
-      <c r="N56" s="2">
-        <f t="shared" si="8"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="O56" s="2">
-        <f t="shared" si="9"/>
-        <v>0.86602540378443871</v>
-      </c>
-      <c r="P56" s="2">
-        <f t="shared" si="10"/>
-        <v>0.86602540378443871</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="B57" s="8">
@@ -10766,22 +9747,10 @@
       <c r="M57" s="10">
         <v>2</v>
       </c>
-      <c r="N57" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O57" s="2">
-        <f t="shared" si="9"/>
-        <v>0.97780460406083358</v>
-      </c>
-      <c r="P57" s="2">
-        <f t="shared" si="10"/>
-        <v>0.97780460406083358</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="B58" s="11">
@@ -10820,22 +9789,10 @@
       <c r="M58" s="13">
         <v>1</v>
       </c>
-      <c r="N58" s="2">
-        <f t="shared" si="8"/>
-        <v>0.85280286542244166</v>
-      </c>
-      <c r="O58" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P58" s="2">
-        <f t="shared" si="10"/>
-        <v>0.85280286542244166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="B59" s="8">
@@ -10874,22 +9831,10 @@
       <c r="M59" s="10">
         <v>2</v>
       </c>
-      <c r="N59" s="2">
-        <f t="shared" si="8"/>
-        <v>0.73886645113372074</v>
-      </c>
-      <c r="O59" s="2">
-        <f t="shared" si="9"/>
-        <v>0.42656170388121467</v>
-      </c>
-      <c r="P59" s="2">
-        <f t="shared" si="10"/>
-        <v>0.92309308324574413</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="B60" s="11">
@@ -10928,22 +9873,10 @@
       <c r="M60" s="13">
         <v>2</v>
       </c>
-      <c r="N60" s="2">
-        <f t="shared" si="8"/>
-        <v>0.93048421039847085</v>
-      </c>
-      <c r="O60" s="2">
-        <f t="shared" si="9"/>
-        <v>0.98205353476887236</v>
-      </c>
-      <c r="P60" s="2">
-        <f t="shared" si="10"/>
-        <v>0.98287639212190892</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="B61" s="8">
@@ -10982,22 +9915,10 @@
       <c r="M61" s="10">
         <v>3</v>
       </c>
-      <c r="N61" s="2">
-        <f t="shared" si="8"/>
-        <v>0.67419986246324204</v>
-      </c>
-      <c r="O61" s="2">
-        <f t="shared" si="9"/>
-        <v>0.37998029782867415</v>
-      </c>
-      <c r="P61" s="2">
-        <f t="shared" si="10"/>
-        <v>0.93933643662772415</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="B62" s="11">
@@ -11036,22 +9957,10 @@
       <c r="M62" s="13">
         <v>2</v>
       </c>
-      <c r="N62" s="2">
-        <f t="shared" si="8"/>
-        <v>0.92338051687663858</v>
-      </c>
-      <c r="O62" s="2">
-        <f t="shared" si="9"/>
-        <v>0.92338051687663858</v>
-      </c>
-      <c r="P62" s="2">
-        <f t="shared" si="10"/>
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="B63" s="8">
@@ -11090,22 +9999,10 @@
       <c r="M63" s="10">
         <v>3</v>
       </c>
-      <c r="N63" s="2">
-        <f t="shared" si="8"/>
-        <v>0.53049589176730549</v>
-      </c>
-      <c r="O63" s="2">
-        <f t="shared" si="9"/>
-        <v>0.97627364441364828</v>
-      </c>
-      <c r="P63" s="2">
-        <f t="shared" si="10"/>
-        <v>0.35888916273274751</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="B64" s="11">
@@ -11144,22 +10041,10 @@
       <c r="M64" s="13">
         <v>1</v>
       </c>
-      <c r="N64" s="2">
-        <f t="shared" si="8"/>
-        <v>0.98644005041562111</v>
-      </c>
-      <c r="O64" s="2">
-        <f t="shared" si="9"/>
-        <v>0.96531867304833219</v>
-      </c>
-      <c r="P64" s="2">
-        <f t="shared" si="10"/>
-        <v>0.91524923349888132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="B65" s="8">
@@ -11198,22 +10083,10 @@
       <c r="M65" s="10">
         <v>2</v>
       </c>
-      <c r="N65" s="2">
-        <f t="shared" si="8"/>
-        <v>0.91986621100779997</v>
-      </c>
-      <c r="O65" s="2">
-        <f t="shared" si="9"/>
-        <v>0.91986621100779997</v>
-      </c>
-      <c r="P65" s="2">
-        <f t="shared" si="10"/>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="B66" s="11">
@@ -11252,22 +10125,10 @@
       <c r="M66" s="13">
         <v>2</v>
       </c>
-      <c r="N66" s="2">
-        <f t="shared" si="8"/>
-        <v>0.9723550652695182</v>
-      </c>
-      <c r="O66" s="2">
-        <f t="shared" si="9"/>
-        <v>0.9723550652695182</v>
-      </c>
-      <c r="P66" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="B67" s="8">
@@ -11306,22 +10167,10 @@
       <c r="M67" s="10">
         <v>4</v>
       </c>
-      <c r="N67" s="2">
-        <f t="shared" si="8"/>
-        <v>0.7317676345451074</v>
-      </c>
-      <c r="O67" s="2">
-        <f t="shared" si="9"/>
-        <v>0.11245070604634984</v>
-      </c>
-      <c r="P67" s="2">
-        <f t="shared" si="10"/>
-        <v>0.68053841193608011</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68">
-        <f t="shared" ref="A68:A131" si="11">ROW(A66)</f>
+        <f t="shared" ref="A68:A131" si="10">ROW(A66)</f>
         <v>66</v>
       </c>
       <c r="B68" s="11">
@@ -11360,22 +10209,10 @@
       <c r="M68" s="13">
         <v>2</v>
       </c>
-      <c r="N68" s="2">
-        <f t="shared" si="8"/>
-        <v>0.16390750941244589</v>
-      </c>
-      <c r="O68" s="2">
-        <f t="shared" si="9"/>
-        <v>0.16390750941244589</v>
-      </c>
-      <c r="P68" s="2">
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
-      <c r="A69">
-        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="B69" s="8">
@@ -11414,22 +10251,10 @@
       <c r="M69" s="10">
         <v>2</v>
       </c>
-      <c r="N69" s="2">
-        <f t="shared" si="8"/>
-        <v>0.8703882797784892</v>
-      </c>
-      <c r="O69" s="2">
-        <f t="shared" si="9"/>
-        <v>0.8703882797784892</v>
-      </c>
-      <c r="P69" s="2">
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
         <f t="shared" si="10"/>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70">
-        <f t="shared" si="11"/>
         <v>68</v>
       </c>
       <c r="B70" s="11">
@@ -11468,22 +10293,10 @@
       <c r="M70" s="13">
         <v>2</v>
       </c>
-      <c r="N70" s="2">
-        <f t="shared" si="8"/>
-        <v>0.66400434587173751</v>
-      </c>
-      <c r="O70" s="2">
-        <f t="shared" si="9"/>
-        <v>0.97251223701858647</v>
-      </c>
-      <c r="P70" s="2">
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71">
         <f t="shared" si="10"/>
-        <v>0.70014004201400493</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71">
-        <f t="shared" si="11"/>
         <v>69</v>
       </c>
       <c r="B71" s="8">
@@ -11522,22 +10335,10 @@
       <c r="M71" s="10">
         <v>2</v>
       </c>
-      <c r="N71" s="2">
-        <f t="shared" si="8"/>
-        <v>0.98409153789156456</v>
-      </c>
-      <c r="O71" s="2">
-        <f t="shared" si="9"/>
-        <v>0.99083016804429913</v>
-      </c>
-      <c r="P71" s="2">
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
         <f t="shared" si="10"/>
-        <v>0.98787150162793114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
-      <c r="A72">
-        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="B72" s="11">
@@ -11576,22 +10377,10 @@
       <c r="M72" s="13">
         <v>4</v>
       </c>
-      <c r="N72" s="2">
-        <f t="shared" si="8"/>
-        <v>0.97014250014533199</v>
-      </c>
-      <c r="O72" s="2">
-        <f t="shared" si="9"/>
-        <v>0.80439966653984374</v>
-      </c>
-      <c r="P72" s="2">
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
         <f t="shared" si="10"/>
-        <v>0.90453403373329089</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
-      <c r="A73">
-        <f t="shared" si="11"/>
         <v>71</v>
       </c>
       <c r="B73" s="8">
@@ -11630,22 +10419,10 @@
       <c r="M73" s="10">
         <v>1</v>
       </c>
-      <c r="N73" s="2">
-        <f t="shared" si="8"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="O73" s="2">
-        <f t="shared" si="9"/>
-        <v>0.98133583997357465</v>
-      </c>
-      <c r="P73" s="2">
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74">
         <f t="shared" si="10"/>
-        <v>0.98133583997357465</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="A74">
-        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="B74" s="11">
@@ -11684,22 +10461,10 @@
       <c r="M74" s="13">
         <v>1</v>
       </c>
-      <c r="N74" s="2">
-        <f t="shared" si="8"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="O74" s="2">
-        <f t="shared" si="9"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="P74" s="2">
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75">
         <f t="shared" si="10"/>
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
-      <c r="A75">
-        <f t="shared" si="11"/>
         <v>73</v>
       </c>
       <c r="B75" s="8">
@@ -11738,22 +10503,10 @@
       <c r="M75" s="10">
         <v>1</v>
       </c>
-      <c r="N75" s="2">
-        <f t="shared" si="8"/>
-        <v>0.42640143271122083</v>
-      </c>
-      <c r="O75" s="2">
-        <f t="shared" si="9"/>
-        <v>0.81649658092772592</v>
-      </c>
-      <c r="P75" s="2">
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76">
         <f t="shared" si="10"/>
-        <v>0.5222329678670935</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="A76">
-        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="B76" s="11">
@@ -11792,22 +10545,10 @@
       <c r="M76" s="13">
         <v>2</v>
       </c>
-      <c r="N76" s="2">
-        <f t="shared" si="8"/>
-        <v>0.94491118252306805</v>
-      </c>
-      <c r="O76" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P76" s="2">
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77">
         <f t="shared" si="10"/>
-        <v>0.94491118252306805</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="A77">
-        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="B77" s="8">
@@ -11846,22 +10587,10 @@
       <c r="M77" s="10">
         <v>4</v>
       </c>
-      <c r="N77" s="2">
-        <f t="shared" si="8"/>
-        <v>0.89190174447890336</v>
-      </c>
-      <c r="O77" s="2">
-        <f t="shared" si="9"/>
-        <v>0.81434507104595522</v>
-      </c>
-      <c r="P77" s="2">
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78">
         <f t="shared" si="10"/>
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="A78">
-        <f t="shared" si="11"/>
         <v>76</v>
       </c>
       <c r="B78" s="11">
@@ -11900,22 +10629,10 @@
       <c r="M78" s="13">
         <v>1</v>
       </c>
-      <c r="N78" s="2">
-        <f t="shared" si="8"/>
-        <v>0.85280286542244166</v>
-      </c>
-      <c r="O78" s="2">
-        <f t="shared" si="9"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="P78" s="2">
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79">
         <f t="shared" si="10"/>
-        <v>0.85280286542244166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="A79">
-        <f t="shared" si="11"/>
         <v>77</v>
       </c>
       <c r="B79" s="8">
@@ -11954,22 +10671,10 @@
       <c r="M79" s="10">
         <v>1</v>
       </c>
-      <c r="N79" s="2">
-        <f t="shared" si="8"/>
-        <v>0.57735026918962573</v>
-      </c>
-      <c r="O79" s="2">
-        <f t="shared" si="9"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="P79" s="2">
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80">
         <f t="shared" si="10"/>
-        <v>0.57735026918962573</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
-      <c r="A80">
-        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="B80" s="11">
@@ -12008,22 +10713,10 @@
       <c r="M80" s="13">
         <v>2</v>
       </c>
-      <c r="N80" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O80" s="2">
-        <f t="shared" si="9"/>
-        <v>0.98893746303421326</v>
-      </c>
-      <c r="P80" s="2">
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81">
         <f t="shared" si="10"/>
-        <v>0.98893746303421326</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="A81">
-        <f t="shared" si="11"/>
         <v>79</v>
       </c>
       <c r="B81" s="8">
@@ -12062,22 +10755,10 @@
       <c r="M81" s="10">
         <v>1</v>
       </c>
-      <c r="N81" s="2">
-        <f t="shared" si="8"/>
-        <v>0.98999520086592163</v>
-      </c>
-      <c r="O81" s="2">
-        <f t="shared" si="9"/>
-        <v>0.9748211852484564</v>
-      </c>
-      <c r="P81" s="2">
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82">
         <f t="shared" si="10"/>
-        <v>0.99479000310648813</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
-      <c r="A82">
-        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="B82" s="11">
@@ -12116,22 +10797,10 @@
       <c r="M82" s="13">
         <v>3</v>
       </c>
-      <c r="N82" s="2">
-        <f t="shared" si="8"/>
-        <v>0.96558102873057605</v>
-      </c>
-      <c r="O82" s="2">
-        <f t="shared" si="9"/>
-        <v>0.97106076111772277</v>
-      </c>
-      <c r="P82" s="2">
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83">
         <f t="shared" si="10"/>
-        <v>0.8755169146059133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
-      <c r="A83">
-        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="B83" s="8">
@@ -12170,22 +10839,10 @@
       <c r="M83" s="10">
         <v>2</v>
       </c>
-      <c r="N83" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O83" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P83" s="2">
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
-      <c r="A84">
-        <f t="shared" si="11"/>
         <v>82</v>
       </c>
       <c r="B84" s="11">
@@ -12224,22 +10881,10 @@
       <c r="M84" s="13">
         <v>3</v>
       </c>
-      <c r="N84" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O84" s="2">
-        <f t="shared" si="9"/>
-        <v>0.64888568452305007</v>
-      </c>
-      <c r="P84" s="2">
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85">
         <f t="shared" si="10"/>
-        <v>0.6622661785325219</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
-      <c r="A85">
-        <f t="shared" si="11"/>
         <v>83</v>
       </c>
       <c r="B85" s="8">
@@ -12278,22 +10923,10 @@
       <c r="M85" s="10">
         <v>1</v>
       </c>
-      <c r="N85" s="2">
-        <f t="shared" si="8"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="O85" s="2">
-        <f t="shared" si="9"/>
-        <v>0.71818484645960778</v>
-      </c>
-      <c r="P85" s="2">
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86">
         <f t="shared" si="10"/>
-        <v>0.71818484645960778</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
-      <c r="A86">
-        <f t="shared" si="11"/>
         <v>84</v>
       </c>
       <c r="B86" s="11">
@@ -12332,22 +10965,10 @@
       <c r="M86" s="13">
         <v>1</v>
       </c>
-      <c r="N86" s="2">
-        <f t="shared" si="8"/>
-        <v>0.97665047680639261</v>
-      </c>
-      <c r="O86" s="2">
-        <f t="shared" si="9"/>
-        <v>0.97665047680639261</v>
-      </c>
-      <c r="P86" s="2">
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
-      <c r="A87">
-        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="B87" s="8">
@@ -12386,22 +11007,10 @@
       <c r="M87" s="10">
         <v>1</v>
       </c>
-      <c r="N87" s="2">
-        <f t="shared" si="8"/>
-        <v>0.94290807094440587</v>
-      </c>
-      <c r="O87" s="2">
-        <f t="shared" si="9"/>
-        <v>0.95784148869231878</v>
-      </c>
-      <c r="P87" s="2">
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88">
         <f t="shared" si="10"/>
-        <v>0.97014250014533199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
-      <c r="A88">
-        <f t="shared" si="11"/>
         <v>86</v>
       </c>
       <c r="B88" s="11">
@@ -12440,22 +11049,10 @@
       <c r="M88" s="13">
         <v>3</v>
       </c>
-      <c r="N88" s="2">
-        <f t="shared" si="8"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="O88" s="2">
-        <f t="shared" si="9"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="P88" s="2">
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89">
         <f t="shared" si="10"/>
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
-      <c r="A89">
-        <f t="shared" si="11"/>
         <v>87</v>
       </c>
       <c r="B89" s="8">
@@ -12494,22 +11091,10 @@
       <c r="M89" s="10">
         <v>3</v>
       </c>
-      <c r="N89" s="2">
-        <f t="shared" si="8"/>
-        <v>0.90453403373329089</v>
-      </c>
-      <c r="O89" s="2">
-        <f t="shared" si="9"/>
-        <v>0.90453403373329089</v>
-      </c>
-      <c r="P89" s="2">
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
-      <c r="A90">
-        <f t="shared" si="11"/>
         <v>88</v>
       </c>
       <c r="B90" s="11">
@@ -12548,22 +11133,10 @@
       <c r="M90" s="13">
         <v>5</v>
       </c>
-      <c r="N90" s="2">
-        <f t="shared" si="8"/>
-        <v>0.83887049280786097</v>
-      </c>
-      <c r="O90" s="2">
-        <f t="shared" si="9"/>
-        <v>0.98562369029767316</v>
-      </c>
-      <c r="P90" s="2">
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91">
         <f t="shared" si="10"/>
-        <v>0.82681063080311179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
-      <c r="A91">
-        <f t="shared" si="11"/>
         <v>89</v>
       </c>
       <c r="B91" s="8">
@@ -12602,22 +11175,10 @@
       <c r="M91" s="10">
         <v>4</v>
       </c>
-      <c r="N91" s="2">
-        <f t="shared" si="8"/>
-        <v>7.3029674334022132E-2</v>
-      </c>
-      <c r="O91" s="2">
-        <f t="shared" si="9"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="P91" s="2">
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92">
         <f t="shared" si="10"/>
-        <v>7.3029674334022132E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
-      <c r="A92">
-        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="B92" s="11">
@@ -12656,22 +11217,10 @@
       <c r="M92" s="13">
         <v>5</v>
       </c>
-      <c r="N92" s="2">
-        <f t="shared" si="8"/>
-        <v>0.90453403373329089</v>
-      </c>
-      <c r="O92" s="2">
-        <f t="shared" si="9"/>
-        <v>0.99455778272307227</v>
-      </c>
-      <c r="P92" s="2">
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93">
         <f t="shared" si="10"/>
-        <v>0.85518611049413651</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
-      <c r="A93">
-        <f t="shared" si="11"/>
         <v>91</v>
       </c>
       <c r="B93" s="8">
@@ -12710,22 +11259,10 @@
       <c r="M93" s="10">
         <v>2</v>
       </c>
-      <c r="N93" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O93" s="2">
-        <f t="shared" si="9"/>
-        <v>0.97056904153817103</v>
-      </c>
-      <c r="P93" s="2">
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94">
         <f t="shared" si="10"/>
-        <v>0.97056904153817103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
-      <c r="A94">
-        <f t="shared" si="11"/>
         <v>92</v>
       </c>
       <c r="B94" s="11">
@@ -12764,22 +11301,10 @@
       <c r="M94" s="13">
         <v>1</v>
       </c>
-      <c r="N94" s="2">
-        <f t="shared" si="8"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="O94" s="2">
-        <f t="shared" si="9"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="P94" s="2">
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95">
         <f t="shared" si="10"/>
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
-      <c r="A95">
-        <f t="shared" si="11"/>
         <v>93</v>
       </c>
       <c r="B95" s="8">
@@ -12818,22 +11343,10 @@
       <c r="M95" s="10">
         <v>0</v>
       </c>
-      <c r="N95" s="2">
-        <f t="shared" si="8"/>
-        <v>0.85280286542244166</v>
-      </c>
-      <c r="O95" s="2">
-        <f t="shared" si="9"/>
-        <v>0.85280286542244166</v>
-      </c>
-      <c r="P95" s="2">
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="A96">
-        <f t="shared" si="11"/>
         <v>94</v>
       </c>
       <c r="B96" s="11">
@@ -12872,22 +11385,10 @@
       <c r="M96" s="13">
         <v>1</v>
       </c>
-      <c r="N96" s="2">
-        <f t="shared" si="8"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="O96" s="2">
-        <f t="shared" si="9"/>
-        <v>0.98019605881960681</v>
-      </c>
-      <c r="P96" s="2">
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97">
         <f t="shared" si="10"/>
-        <v>0.98019605881960681</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21">
-      <c r="A97">
-        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="B97" s="8">
@@ -12926,22 +11427,10 @@
       <c r="M97" s="10">
         <v>2</v>
       </c>
-      <c r="N97" s="2">
-        <f t="shared" si="8"/>
-        <v>0.7745966692414834</v>
-      </c>
-      <c r="O97" s="2">
-        <f t="shared" si="9"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="P97" s="2">
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98">
         <f t="shared" si="10"/>
-        <v>0.7745966692414834</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21">
-      <c r="A98">
-        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="B98" s="11">
@@ -12980,22 +11469,10 @@
       <c r="M98" s="13">
         <v>4</v>
       </c>
-      <c r="N98" s="2">
-        <f t="shared" si="8"/>
-        <v>0.96558102873057605</v>
-      </c>
-      <c r="O98" s="2">
-        <f t="shared" si="9"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="P98" s="2">
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99">
         <f t="shared" si="10"/>
-        <v>0.96558102873057605</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21">
-      <c r="A99">
-        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="B99" s="8">
@@ -13034,22 +11511,10 @@
       <c r="M99" s="10">
         <v>1</v>
       </c>
-      <c r="N99" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O99" s="2">
-        <f t="shared" si="9"/>
-        <v>-0.50000000000000011</v>
-      </c>
-      <c r="P99" s="2">
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100">
         <f t="shared" si="10"/>
-        <v>0.86602540378443871</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21">
-      <c r="A100">
-        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="B100" s="11">
@@ -13088,22 +11553,10 @@
       <c r="M100" s="13">
         <v>2</v>
       </c>
-      <c r="N100" s="2">
-        <f t="shared" ref="N100:N151" si="12">PEARSON(B100:E100, F100:I100)</f>
-        <v>0.86602540378443871</v>
-      </c>
-      <c r="O100" s="2">
-        <f t="shared" ref="O100:O151" si="13">PEARSON(B100:E100, J100:M100)</f>
-        <v>0.86602540378443871</v>
-      </c>
-      <c r="P100" s="2">
-        <f t="shared" ref="P100:P151" si="14">PEARSON(F100:I100, J100:M100)</f>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21">
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="B101" s="8">
@@ -13142,22 +11595,10 @@
       <c r="M101" s="10">
         <v>2</v>
       </c>
-      <c r="N101" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O101" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P101" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21">
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="B102" s="11">
@@ -13196,22 +11637,10 @@
       <c r="M102" s="13">
         <v>1</v>
       </c>
-      <c r="N102" s="2">
-        <f t="shared" si="12"/>
-        <v>0.92880922000386001</v>
-      </c>
-      <c r="O102" s="2">
-        <f t="shared" si="13"/>
-        <v>0.78607280054788442</v>
-      </c>
-      <c r="P102" s="2">
-        <f t="shared" si="14"/>
-        <v>0.95916630466254393</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21">
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>101</v>
       </c>
       <c r="B103" s="8">
@@ -13250,22 +11679,10 @@
       <c r="M103" s="10">
         <v>3</v>
       </c>
-      <c r="N103" s="2">
-        <f t="shared" si="12"/>
-        <v>0.9737289911202951</v>
-      </c>
-      <c r="O103" s="2">
-        <f t="shared" si="13"/>
-        <v>0.9737289911202951</v>
-      </c>
-      <c r="P103" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21">
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
       <c r="B104" s="11">
@@ -13304,22 +11721,10 @@
       <c r="M104" s="13">
         <v>2</v>
       </c>
-      <c r="N104" s="2">
-        <f t="shared" si="12"/>
-        <v>0.42640143271122083</v>
-      </c>
-      <c r="O104" s="2">
-        <f t="shared" si="13"/>
-        <v>0.5222329678670935</v>
-      </c>
-      <c r="P104" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21">
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>103</v>
       </c>
       <c r="B105" s="8">
@@ -13358,22 +11763,10 @@
       <c r="M105" s="10">
         <v>2</v>
       </c>
-      <c r="N105" s="2">
-        <f t="shared" si="12"/>
-        <v>0.42656170388121467</v>
-      </c>
-      <c r="O105" s="2">
-        <f t="shared" si="13"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="P105" s="2">
-        <f t="shared" si="14"/>
-        <v>0.42656170388121467</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21">
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>104</v>
       </c>
       <c r="B106" s="11">
@@ -13412,22 +11805,10 @@
       <c r="M106" s="13">
         <v>1</v>
       </c>
-      <c r="N106" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O106" s="2">
-        <f t="shared" si="13"/>
-        <v>0.81649658092772592</v>
-      </c>
-      <c r="P106" s="2">
-        <f t="shared" si="14"/>
-        <v>0.81649658092772592</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21">
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
       <c r="B107" s="8">
@@ -13466,22 +11847,10 @@
       <c r="M107" s="10">
         <v>3</v>
       </c>
-      <c r="N107" s="2">
-        <f t="shared" si="12"/>
-        <v>0.99339926779878285</v>
-      </c>
-      <c r="O107" s="2">
-        <f t="shared" si="13"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="P107" s="2">
-        <f t="shared" si="14"/>
-        <v>0.99339926779878285</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21">
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>106</v>
       </c>
       <c r="B108" s="11">
@@ -13520,22 +11889,10 @@
       <c r="M108" s="13">
         <v>3</v>
       </c>
-      <c r="N108" s="2">
-        <f t="shared" si="12"/>
-        <v>0.80903983495589038</v>
-      </c>
-      <c r="O108" s="2">
-        <f t="shared" si="13"/>
-        <v>0.84327404271156781</v>
-      </c>
-      <c r="P108" s="2">
-        <f t="shared" si="14"/>
-        <v>0.71066905451870144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21">
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>107</v>
       </c>
       <c r="B109" s="8">
@@ -13574,34 +11931,10 @@
       <c r="M109" s="10">
         <v>2</v>
       </c>
-      <c r="N109" s="2" t="e">
-        <f>PEARSON(B109:E109, F109:I109)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O109" s="2" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P109" s="2" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R109">
-        <v>1</v>
-      </c>
-      <c r="S109">
-        <v>1</v>
-      </c>
-      <c r="T109">
-        <v>1</v>
-      </c>
-      <c r="U109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21">
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>108</v>
       </c>
       <c r="B110" s="11">
@@ -13640,34 +11973,10 @@
       <c r="M110" s="13">
         <v>3</v>
       </c>
-      <c r="N110" s="2">
-        <f t="shared" si="12"/>
-        <v>0.98205353476887236</v>
-      </c>
-      <c r="O110" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P110" s="2">
-        <f t="shared" si="14"/>
-        <v>0.98205353476887236</v>
-      </c>
-      <c r="R110">
-        <v>1</v>
-      </c>
-      <c r="S110">
-        <v>1</v>
-      </c>
-      <c r="T110">
-        <v>4</v>
-      </c>
-      <c r="U110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21">
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>109</v>
       </c>
       <c r="B111" s="8">
@@ -13706,22 +12015,10 @@
       <c r="M111" s="10">
         <v>2</v>
       </c>
-      <c r="N111" s="2">
-        <f t="shared" si="12"/>
-        <v>0.92582009977255142</v>
-      </c>
-      <c r="O111" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P111" s="2">
-        <f t="shared" si="14"/>
-        <v>0.92582009977255142</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21">
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="B112" s="11">
@@ -13760,26 +12057,10 @@
       <c r="M112" s="13">
         <v>1</v>
       </c>
-      <c r="N112" s="2">
-        <f t="shared" si="12"/>
-        <v>0.97713552797948233</v>
-      </c>
-      <c r="O112" s="2">
-        <f t="shared" si="13"/>
-        <v>-0.29554023164452431</v>
-      </c>
-      <c r="P112" s="2">
-        <f t="shared" si="14"/>
-        <v>-0.39524658758195291</v>
-      </c>
-      <c r="R112" t="e">
-        <f>PEARSON(R109:U109, R110:U110)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16">
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>111</v>
       </c>
       <c r="B113" s="8">
@@ -13818,22 +12099,10 @@
       <c r="M113" s="10">
         <v>2</v>
       </c>
-      <c r="N113" s="2">
-        <f t="shared" si="12"/>
-        <v>-9.6058421285614815E-2</v>
-      </c>
-      <c r="O113" s="2">
-        <f t="shared" si="13"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="P113" s="2">
-        <f t="shared" si="14"/>
-        <v>-9.6058421285614815E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16">
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>112</v>
       </c>
       <c r="B114" s="11">
@@ -13872,22 +12141,10 @@
       <c r="M114" s="13">
         <v>3</v>
       </c>
-      <c r="N114" s="2">
-        <f t="shared" si="12"/>
-        <v>0.94663827886249774</v>
-      </c>
-      <c r="O114" s="2">
-        <f t="shared" si="13"/>
-        <v>0.97732578601395625</v>
-      </c>
-      <c r="P114" s="2">
-        <f t="shared" si="14"/>
-        <v>0.99125785710020275</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16">
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>113</v>
       </c>
       <c r="B115" s="8">
@@ -13926,22 +12183,10 @@
       <c r="M115" s="10">
         <v>2</v>
       </c>
-      <c r="N115" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O115" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P115" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16">
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>114</v>
       </c>
       <c r="B116" s="11">
@@ -13980,22 +12225,10 @@
       <c r="M116" s="13">
         <v>1</v>
       </c>
-      <c r="N116" s="2">
-        <f t="shared" si="12"/>
-        <v>0.91465912076004718</v>
-      </c>
-      <c r="O116" s="2">
-        <f t="shared" si="13"/>
-        <v>0.91465912076004718</v>
-      </c>
-      <c r="P116" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16">
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>115</v>
       </c>
       <c r="B117" s="8">
@@ -14034,22 +12267,10 @@
       <c r="M117" s="10">
         <v>2</v>
       </c>
-      <c r="N117" s="2">
-        <f t="shared" si="12"/>
-        <v>0.5222329678670935</v>
-      </c>
-      <c r="O117" s="2">
-        <f t="shared" si="13"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="P117" s="2">
-        <f t="shared" si="14"/>
-        <v>0.5222329678670935</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>116</v>
       </c>
       <c r="B118" s="11">
@@ -14088,22 +12309,10 @@
       <c r="M118" s="13">
         <v>1</v>
       </c>
-      <c r="N118" s="2">
-        <f t="shared" si="12"/>
-        <v>0.95456557968549416</v>
-      </c>
-      <c r="O118" s="2">
-        <f t="shared" si="13"/>
-        <v>0.98119771101781106</v>
-      </c>
-      <c r="P118" s="2">
-        <f t="shared" si="14"/>
-        <v>0.88204598241220633</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>117</v>
       </c>
       <c r="B119" s="8">
@@ -14142,22 +12351,10 @@
       <c r="M119" s="10">
         <v>1</v>
       </c>
-      <c r="N119" s="2">
-        <f t="shared" si="12"/>
-        <v>0.96225044864937626</v>
-      </c>
-      <c r="O119" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P119" s="2">
-        <f t="shared" si="14"/>
-        <v>0.96225044864937626</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16">
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>118</v>
       </c>
       <c r="B120" s="11">
@@ -14196,22 +12393,10 @@
       <c r="M120" s="13">
         <v>3</v>
       </c>
-      <c r="N120" s="2">
-        <f t="shared" si="12"/>
-        <v>0.8703882797784892</v>
-      </c>
-      <c r="O120" s="2">
-        <f t="shared" si="13"/>
-        <v>0.5222329678670935</v>
-      </c>
-      <c r="P120" s="2">
-        <f t="shared" si="14"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16">
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>119</v>
       </c>
       <c r="B121" s="8">
@@ -14250,22 +12435,10 @@
       <c r="M121" s="10">
         <v>1</v>
       </c>
-      <c r="N121" s="2">
-        <f t="shared" si="12"/>
-        <v>0.96832966373148854</v>
-      </c>
-      <c r="O121" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P121" s="2">
-        <f t="shared" si="14"/>
-        <v>0.96832966373148854</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="B122" s="11">
@@ -14304,22 +12477,10 @@
       <c r="M122" s="13">
         <v>0</v>
       </c>
-      <c r="N122" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O122" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P122" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16">
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>121</v>
       </c>
       <c r="B123" s="8">
@@ -14358,22 +12519,10 @@
       <c r="M123" s="10">
         <v>2</v>
       </c>
-      <c r="N123" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O123" s="2">
-        <f t="shared" si="13"/>
-        <v>0.98893746303421326</v>
-      </c>
-      <c r="P123" s="2">
-        <f t="shared" si="14"/>
-        <v>0.98893746303421326</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>122</v>
       </c>
       <c r="B124" s="11">
@@ -14412,22 +12561,10 @@
       <c r="M124" s="13">
         <v>1</v>
       </c>
-      <c r="N124" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O124" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P124" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16">
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>123</v>
       </c>
       <c r="B125" s="8">
@@ -14466,22 +12603,10 @@
       <c r="M125" s="10">
         <v>2</v>
       </c>
-      <c r="N125" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O125" s="2">
-        <f t="shared" si="13"/>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="P125" s="2">
-        <f t="shared" si="14"/>
-        <v>0.73854894587599651</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16">
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>124</v>
       </c>
       <c r="B126" s="11">
@@ -14520,22 +12645,10 @@
       <c r="M126" s="13">
         <v>2</v>
       </c>
-      <c r="N126" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O126" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P126" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>125</v>
       </c>
       <c r="B127" s="8">
@@ -14574,22 +12687,10 @@
       <c r="M127" s="10">
         <v>4</v>
       </c>
-      <c r="N127" s="2">
-        <f t="shared" si="12"/>
-        <v>0.94319409736351711</v>
-      </c>
-      <c r="O127" s="2">
-        <f t="shared" si="13"/>
-        <v>0.9737289911202951</v>
-      </c>
-      <c r="P127" s="2">
-        <f t="shared" si="14"/>
-        <v>0.88561488554009515</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16">
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>126</v>
       </c>
       <c r="B128" s="11">
@@ -14628,22 +12729,10 @@
       <c r="M128" s="13">
         <v>0</v>
       </c>
-      <c r="N128" s="2">
-        <f t="shared" si="12"/>
-        <v>0.58586124527154348</v>
-      </c>
-      <c r="O128" s="2">
-        <f t="shared" si="13"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="P128" s="2">
-        <f t="shared" si="14"/>
-        <v>0.58586124527154348</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16">
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>127</v>
       </c>
       <c r="B129" s="8">
@@ -14682,22 +12771,10 @@
       <c r="M129" s="10">
         <v>1</v>
       </c>
-      <c r="N129" s="2">
-        <f t="shared" si="12"/>
-        <v>0.7745966692414834</v>
-      </c>
-      <c r="O129" s="2">
-        <f t="shared" si="13"/>
-        <v>0.7745966692414834</v>
-      </c>
-      <c r="P129" s="2">
-        <f t="shared" si="14"/>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16">
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>128</v>
       </c>
       <c r="B130" s="11">
@@ -14736,22 +12813,10 @@
       <c r="M130" s="13">
         <v>1</v>
       </c>
-      <c r="N130" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O130" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P130" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16">
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>129</v>
       </c>
       <c r="B131" s="8">
@@ -14790,22 +12855,10 @@
       <c r="M131" s="10">
         <v>2</v>
       </c>
-      <c r="N131" s="2">
-        <f t="shared" si="12"/>
-        <v>0.89190174447890336</v>
-      </c>
-      <c r="O131" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P131" s="2">
-        <f t="shared" si="14"/>
-        <v>0.89190174447890336</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16">
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132">
-        <f t="shared" ref="A132:A151" si="15">ROW(A130)</f>
+        <f t="shared" ref="A132:A151" si="11">ROW(A130)</f>
         <v>130</v>
       </c>
       <c r="B132" s="11">
@@ -14844,22 +12897,10 @@
       <c r="M132" s="13">
         <v>3</v>
       </c>
-      <c r="N132" s="2">
-        <f t="shared" si="12"/>
-        <v>0.42640143271122083</v>
-      </c>
-      <c r="O132" s="2">
-        <f t="shared" si="13"/>
-        <v>0.97332852678457504</v>
-      </c>
-      <c r="P132" s="2">
-        <f t="shared" si="14"/>
-        <v>0.3458572319330373</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16">
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>131</v>
       </c>
       <c r="B133" s="8">
@@ -14898,22 +12939,10 @@
       <c r="M133" s="10">
         <v>4</v>
       </c>
-      <c r="N133" s="2">
-        <f t="shared" si="12"/>
-        <v>0.99455778272307227</v>
-      </c>
-      <c r="O133" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P133" s="2">
-        <f t="shared" si="14"/>
-        <v>0.99455778272307227</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16">
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>132</v>
       </c>
       <c r="B134" s="11">
@@ -14952,22 +12981,10 @@
       <c r="M134" s="13">
         <v>3</v>
       </c>
-      <c r="N134" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O134" s="2">
-        <f t="shared" si="13"/>
-        <v>0.94387980744853894</v>
-      </c>
-      <c r="P134" s="2">
-        <f t="shared" si="14"/>
-        <v>0.94387980744853894</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16">
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>133</v>
       </c>
       <c r="B135" s="8">
@@ -15006,22 +13023,10 @@
       <c r="M135" s="10">
         <v>2</v>
       </c>
-      <c r="N135" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O135" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P135" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16">
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>134</v>
       </c>
       <c r="B136" s="11">
@@ -15060,22 +13065,10 @@
       <c r="M136" s="13">
         <v>3</v>
       </c>
-      <c r="N136" s="2">
-        <f t="shared" si="12"/>
-        <v>0.78947368421052622</v>
-      </c>
-      <c r="O136" s="2">
-        <f t="shared" si="13"/>
-        <v>0.93658581158169396</v>
-      </c>
-      <c r="P136" s="2">
-        <f t="shared" si="14"/>
-        <v>0.74926864926535519</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16">
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>135</v>
       </c>
       <c r="B137" s="8">
@@ -15114,22 +13107,10 @@
       <c r="M137" s="10">
         <v>2</v>
       </c>
-      <c r="N137" s="2">
-        <f t="shared" si="12"/>
-        <v>0.90453403373329089</v>
-      </c>
-      <c r="O137" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P137" s="2">
-        <f t="shared" si="14"/>
-        <v>0.90453403373329089</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16">
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>136</v>
       </c>
       <c r="B138" s="11">
@@ -15168,22 +13149,10 @@
       <c r="M138" s="13">
         <v>2</v>
       </c>
-      <c r="N138" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O138" s="2">
-        <f t="shared" si="13"/>
-        <v>0.99165021263146558</v>
-      </c>
-      <c r="P138" s="2">
-        <f t="shared" si="14"/>
-        <v>0.99165021263146558</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16">
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>137</v>
       </c>
       <c r="B139" s="8">
@@ -15222,22 +13191,10 @@
       <c r="M139" s="10">
         <v>1</v>
       </c>
-      <c r="N139" s="2">
-        <f t="shared" si="12"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="O139" s="2">
-        <f t="shared" si="13"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="P139" s="2">
-        <f t="shared" si="14"/>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16">
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>138</v>
       </c>
       <c r="B140" s="11">
@@ -15276,22 +13233,10 @@
       <c r="M140" s="13">
         <v>0</v>
       </c>
-      <c r="N140" s="2">
-        <f t="shared" si="12"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="O140" s="2">
-        <f t="shared" si="13"/>
-        <v>0.85280286542244166</v>
-      </c>
-      <c r="P140" s="2">
-        <f t="shared" si="14"/>
-        <v>0.85280286542244166</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16">
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>139</v>
       </c>
       <c r="B141" s="8">
@@ -15330,22 +13275,10 @@
       <c r="M141" s="10">
         <v>2</v>
       </c>
-      <c r="N141" s="2">
-        <f t="shared" si="12"/>
-        <v>0.87481776527970656</v>
-      </c>
-      <c r="O141" s="2">
-        <f t="shared" si="13"/>
-        <v>0.94725511359581838</v>
-      </c>
-      <c r="P141" s="2">
-        <f t="shared" si="14"/>
-        <v>0.97302554513465567</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16">
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>140</v>
       </c>
       <c r="B142" s="11">
@@ -15384,22 +13317,10 @@
       <c r="M142" s="13">
         <v>3</v>
       </c>
-      <c r="N142" s="2">
-        <f t="shared" si="12"/>
-        <v>0.99447692672482824</v>
-      </c>
-      <c r="O142" s="2">
-        <f t="shared" si="13"/>
-        <v>0.99483927155195795</v>
-      </c>
-      <c r="P142" s="2">
-        <f t="shared" si="14"/>
-        <v>0.98999520086592163</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16">
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>141</v>
       </c>
       <c r="B143" s="8">
@@ -15438,22 +13359,10 @@
       <c r="M143" s="10">
         <v>4</v>
       </c>
-      <c r="N143" s="2">
-        <f t="shared" si="12"/>
-        <v>0.99086738861372459</v>
-      </c>
-      <c r="O143" s="2">
-        <f t="shared" si="13"/>
-        <v>0.94387980744853894</v>
-      </c>
-      <c r="P143" s="2">
-        <f t="shared" si="14"/>
-        <v>0.97979589711327109</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16">
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>142</v>
       </c>
       <c r="B144" s="11">
@@ -15492,22 +13401,10 @@
       <c r="M144" s="13">
         <v>1</v>
       </c>
-      <c r="N144" s="2">
-        <f t="shared" si="12"/>
-        <v>0.99449165024151742</v>
-      </c>
-      <c r="O144" s="2">
-        <f t="shared" si="13"/>
-        <v>0.99449165024151742</v>
-      </c>
-      <c r="P144" s="2">
-        <f t="shared" si="14"/>
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16">
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>143</v>
       </c>
       <c r="B145" s="8">
@@ -15546,22 +13443,10 @@
       <c r="M145" s="10">
         <v>4</v>
       </c>
-      <c r="N145" s="2">
-        <f t="shared" si="12"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="O145" s="2">
-        <f t="shared" si="13"/>
-        <v>0.84852813742385691</v>
-      </c>
-      <c r="P145" s="2">
-        <f t="shared" si="14"/>
-        <v>0.84852813742385691</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16">
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
       <c r="B146" s="11">
@@ -15600,22 +13485,10 @@
       <c r="M146" s="13">
         <v>4</v>
       </c>
-      <c r="N146" s="2">
-        <f t="shared" si="12"/>
-        <v>0.92582009977255153</v>
-      </c>
-      <c r="O146" s="2">
-        <f t="shared" si="13"/>
-        <v>0.89817742627814368</v>
-      </c>
-      <c r="P146" s="2">
-        <f t="shared" si="14"/>
-        <v>0.72760687510899902</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16">
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>145</v>
       </c>
       <c r="B147" s="8">
@@ -15654,22 +13527,10 @@
       <c r="M147" s="10">
         <v>1</v>
       </c>
-      <c r="N147" s="2">
-        <f t="shared" si="12"/>
-        <v>0.9847319278346619</v>
-      </c>
-      <c r="O147" s="2">
-        <f t="shared" si="13"/>
-        <v>0.9847319278346619</v>
-      </c>
-      <c r="P147" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16">
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>146</v>
       </c>
       <c r="B148" s="11">
@@ -15708,22 +13569,10 @@
       <c r="M148" s="13">
         <v>3</v>
       </c>
-      <c r="N148" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O148" s="2">
-        <f t="shared" si="13"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="P148" s="2">
-        <f t="shared" si="14"/>
-        <v>0.54772255750516607</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16">
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>147</v>
       </c>
       <c r="B149" s="8">
@@ -15762,22 +13611,10 @@
       <c r="M149" s="10">
         <v>1</v>
       </c>
-      <c r="N149" s="2">
-        <f t="shared" si="12"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="O149" s="2">
-        <f t="shared" si="13"/>
-        <v>0.9847319278346619</v>
-      </c>
-      <c r="P149" s="2">
-        <f t="shared" si="14"/>
-        <v>0.9847319278346619</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16">
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>148</v>
       </c>
       <c r="B150" s="11">
@@ -15816,22 +13653,10 @@
       <c r="M150" s="13">
         <v>1</v>
       </c>
-      <c r="N150" s="2">
-        <f t="shared" si="12"/>
-        <v>0.73854894587599651</v>
-      </c>
-      <c r="O150" s="2">
-        <f t="shared" si="13"/>
-        <v>0.87160192891056654</v>
-      </c>
-      <c r="P150" s="2">
-        <f t="shared" si="14"/>
-        <v>0.96558102873057605</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16">
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>149</v>
       </c>
       <c r="B151" s="8">
@@ -15869,38 +13694,26 @@
       </c>
       <c r="M151" s="10">
         <v>2</v>
-      </c>
-      <c r="N151" s="2">
-        <f t="shared" si="12"/>
-        <v>0.90453403373329089</v>
-      </c>
-      <c r="O151" s="2">
-        <f t="shared" si="13"/>
-        <v>0.90453403373329089</v>
-      </c>
-      <c r="P151" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:M35" xr:uid="{03A45DB7-0019-454E-8F17-3003E0E28B80}"/>
   <conditionalFormatting sqref="B3:E160">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$D3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:I160">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$H3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:M160">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$L3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:P151">
+  <conditionalFormatting sqref="N3:P35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>ABS(N3)&lt;$Q$2</formula>
     </cfRule>
